--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched_HK.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched_HK.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman.hennig\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_992A8050BFE2D6DF8CCA274F53859F76552817E4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D1CBDDAF-657D-42A7-AD4B-916804E51331}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_992A8050BFE2D6DF8CCA274F53859F76552817E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2E0ED95-5300-4357-8513-3028F7428BA5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CLP Assets" sheetId="5" r:id="rId2"/>
     <sheet name="HKE Asset" sheetId="6" r:id="rId3"/>
-    <sheet name="BPMCCS" sheetId="2" r:id="rId4"/>
+    <sheet name="MSD" sheetId="7" r:id="rId4"/>
+    <sheet name="BPMCCS" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -362,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="270">
   <si>
     <t>Year</t>
   </si>
@@ -1461,6 +1463,24 @@
   <si>
     <t>HKE thinks it's better to develop gas generation.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crude oil (MW)</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil (MW)</t>
+  </si>
+  <si>
+    <t>municipal solid waste (MW)</t>
+  </si>
+  <si>
+    <t>a new MSD power plant is under construction and will be completed in 2024</t>
+  </si>
+  <si>
+    <t>it can treat 3000 tonnes MSW per day and can geenrate 0.48 billion KWh annually</t>
+  </si>
+  <si>
+    <t>source: HK blueprint for sustainable use of resources 2013-2022</t>
   </si>
 </sst>
 </file>
@@ -2305,6 +2325,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>456305</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB663889-6C28-4496-9D65-03AE773E30CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="190500"/>
+          <a:ext cx="7161905" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5420,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -5832,17 +5901,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806D35C6-EE1D-45D7-BD9C-624FB3BAF2E4}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7436,6 +7536,345 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>165</v>
+      </c>
+      <c r="M17">
+        <v>165</v>
+      </c>
+      <c r="N17">
+        <v>165</v>
+      </c>
+      <c r="O17">
+        <v>165</v>
+      </c>
+      <c r="P17">
+        <v>165</v>
+      </c>
+      <c r="Q17">
+        <v>165</v>
+      </c>
+      <c r="R17">
+        <v>165</v>
+      </c>
+      <c r="S17">
+        <v>165</v>
+      </c>
+      <c r="T17">
+        <v>165</v>
+      </c>
+      <c r="U17">
+        <v>165</v>
+      </c>
+      <c r="V17">
+        <v>165</v>
+      </c>
+      <c r="W17">
+        <v>165</v>
+      </c>
+      <c r="X17">
+        <v>165</v>
+      </c>
+      <c r="Y17">
+        <v>165</v>
+      </c>
+      <c r="Z17">
+        <v>165</v>
+      </c>
+      <c r="AA17">
+        <v>165</v>
+      </c>
+      <c r="AB17">
+        <v>165</v>
+      </c>
+      <c r="AC17">
+        <v>165</v>
+      </c>
+      <c r="AD17">
+        <v>165</v>
+      </c>
+      <c r="AE17">
+        <v>165</v>
+      </c>
+      <c r="AF17">
+        <v>165</v>
+      </c>
+      <c r="AG17">
+        <v>165</v>
+      </c>
+      <c r="AH17">
+        <v>165</v>
+      </c>
+      <c r="AI17">
+        <v>165</v>
+      </c>
+      <c r="AJ17">
+        <v>165</v>
+      </c>
+      <c r="AK17">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7443,21 +7882,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7695,14 +8134,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9C258F-8B2D-4324-9C14-B134F59C77B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08065FD-5B6D-42CE-B8BF-76B07783FA76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7720,6 +8151,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9C258F-8B2D-4324-9C14-B134F59C77B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E515567C-76CC-4E3A-8CA7-857A9CB73A2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E515567C-76CC-4E3A-8CA7-857A9CB73A2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched_HK.xlsx
+++ b/InputData/elec/BPMCCS/BAU Pol Mandated Cap Const Sched_HK.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BPMCCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\elec\BPMCCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_992A8050BFE2D6DF8CCA274F53859F76552817E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2E0ED95-5300-4357-8513-3028F7428BA5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="MSD" sheetId="7" r:id="rId4"/>
     <sheet name="BPMCCS" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="G56" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G82" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G107" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,12 +223,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>微软用户</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1485,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -2660,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2813,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5477,7 +5476,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I23" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -5486,7 +5485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
@@ -5901,7 +5900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806D35C6-EE1D-45D7-BD9C-624FB3BAF2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5932,17 +5931,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB23" sqref="AB23"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17:AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7800,79 +7799,79 @@
         <v>165</v>
       </c>
       <c r="M17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7891,15 +7890,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8133,6 +8123,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08065FD-5B6D-42CE-B8BF-76B07783FA76}">
   <ds:schemaRefs>
@@ -8152,14 +8151,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9C258F-8B2D-4324-9C14-B134F59C77B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E515567C-76CC-4E3A-8CA7-857A9CB73A2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8177,4 +8168,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9C258F-8B2D-4324-9C14-B134F59C77B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>